--- a/Fase 2/Evidencias del proyecto/Planilla de requerimientos .xlsx
+++ b/Fase 2/Evidencias del proyecto/Planilla de requerimientos .xlsx
@@ -4,21 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Listado de requerimientos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Requerimientos funcionales" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Requerimientos no funcionales" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Requerimientos no funcionales" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Requerimientos funcionales" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="L+jg3tGwjArEP8ij9zwdqHT1GDPMzYfZRWXogsdnMWE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="RWNvILldKNvgraiuveeVpu7PKm/2yX+V9t5VF6M5W0I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -36,403 +36,175 @@
     <t>[Descripción corta del requerimiento]</t>
   </si>
   <si>
-    <t>R-01</t>
-  </si>
-  <si>
-    <t>Creación de Tareas</t>
+    <t>R-1</t>
+  </si>
+  <si>
+    <t>Movimiento del Personaje Jugable</t>
   </si>
   <si>
     <t>Funcional</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>El usuario puede crear nuevas tareas, ingresando detalles como título, descripción, fechas de inicio y vencimiento, prioridad y estado</t>
-  </si>
-  <si>
-    <t>R-02</t>
-  </si>
-  <si>
-    <t>Edición de Tareas</t>
-  </si>
-  <si>
-    <t>El usuario puede modificar los detalles de una tarea existente, como la descripción, fechas o estado</t>
-  </si>
-  <si>
-    <t>R-03</t>
-  </si>
-  <si>
-    <t>Eliminación de Tareas</t>
-  </si>
-  <si>
-    <t>El usuario puede eliminar una tarea existente. Si la tarea está asociada a un proyecto, se actualizará el progreso de ese proyecto</t>
-  </si>
-  <si>
-    <t>R-04</t>
-  </si>
-  <si>
-    <t>Asignación de Tareas a Proyectos</t>
-  </si>
-  <si>
-    <t>El usuario puede asignar una tarea a un proyecto específico para su mejor organización</t>
-  </si>
-  <si>
-    <t>R-05</t>
-  </si>
-  <si>
-    <t>Gestión de Subtareas</t>
-  </si>
-  <si>
-    <t>El usuario puede dividir una tarea en subtareas, asignando fechas y estados a cada subtarea</t>
-  </si>
-  <si>
-    <t>R-06</t>
-  </si>
-  <si>
-    <t>Gestión de Dependencias entre Tareas</t>
-  </si>
-  <si>
-    <t>El usuario puede establecer dependencias entre tareas, indicando que una tarea no puede comenzar hasta que otra haya sido completada</t>
-  </si>
-  <si>
-    <t>R-07</t>
-  </si>
-  <si>
-    <t>Creación de Proyectos</t>
-  </si>
-  <si>
-    <t>El usuario puede crear proyectos que agrupen varias tareas relacionadas, facilitando la gestión de trabajos complejos</t>
-  </si>
-  <si>
-    <t>R-08</t>
-  </si>
-  <si>
-    <t>Edición de Proyectos</t>
-  </si>
-  <si>
-    <t>El usuario puede editar los detalles de un proyecto, como el nombre, la descripción y las fechas de inicio y fin</t>
-  </si>
-  <si>
-    <t>R-09</t>
-  </si>
-  <si>
-    <t>Visualización de Proyectos</t>
-  </si>
-  <si>
-    <t>El usuario puede ver una lista de proyectos activos y completados, con su estado y progreso general</t>
+    <t>Jugador</t>
+  </si>
+  <si>
+    <t>El personaje principal debe moverse en ocho direcciones dentro del entorno isométrico utilizando las teclas del teclado.</t>
+  </si>
+  <si>
+    <t>Ataques del Personaje Jugable</t>
+  </si>
+  <si>
+    <t>El jugador debe poder realizar ataques cuerpo a cuerpo y a distancia con diferentes armas asignadas mediante botones específicos.</t>
+  </si>
+  <si>
+    <t>Generación Procedimental de Mazmorras</t>
+  </si>
+  <si>
+    <t>Sistema del Juego</t>
+  </si>
+  <si>
+    <t>El sistema debe crear automáticamente mazmorras con salas interconectadas y enemigos en posiciones aleatorias.</t>
+  </si>
+  <si>
+    <t>Enemigos Cuerpo a Cuerpo</t>
+  </si>
+  <si>
+    <t>Los enemigos deben perseguir al jugador y realizar ataques cuerpo a cuerpo al entrar en un rango cercano.</t>
+  </si>
+  <si>
+    <t>Enemigos A Distancia</t>
+  </si>
+  <si>
+    <t>Los enemigos deben atacar al jugador desde la distancia con proyectiles, manteniéndose fuera de su alcance cuerpo a cuerpo.</t>
+  </si>
+  <si>
+    <t>Transición entre Pisos de Mazmorra</t>
+  </si>
+  <si>
+    <t>Al completar un piso, el jugador debe acceder al siguiente nivel mediante una salida específica.</t>
+  </si>
+  <si>
+    <t>Sistema de Vida del Jugador</t>
+  </si>
+  <si>
+    <t>Implementar una barra de vida que disminuya cuando el jugador reciba daño de enemigos o trampas, con la posibilidad de recuperar vida mediante pociones.</t>
+  </si>
+  <si>
+    <t>Sistema de Inventario</t>
+  </si>
+  <si>
+    <t>El jugador debe poder recolectar y gestionar armas durante la partida.</t>
+  </si>
+  <si>
+    <t>Jefe Final del Nivel</t>
+  </si>
+  <si>
+    <t>El jefe final debe contar con patrones de ataque únicos y mayor resistencia, sirviendo como desafío principal antes de terminar el nivel.</t>
+  </si>
+  <si>
+    <t>Activación de Trampas</t>
+  </si>
+  <si>
+    <t>Permitir trampas dentro de las mazmorras, que puedan afectar tanto a enemigos como al propio jugador.</t>
+  </si>
+  <si>
+    <t>Efectos Visuales de Daño</t>
+  </si>
+  <si>
+    <t>Mostrar efectos visuales como partículas cuando el jugador o los enemigos reciben daño.</t>
+  </si>
+  <si>
+    <t>Sistema de Habilidades</t>
+  </si>
+  <si>
+    <t>Incorporar habilidades especiales que el jugador pueda activar.</t>
+  </si>
+  <si>
+    <t>R-9</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>No funcional</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>El juego debe mantener una tasa de 60 FPS en computadoras de gama media.</t>
   </si>
   <si>
     <t>R-10</t>
   </si>
   <si>
-    <t>Tablero Kanban</t>
-  </si>
-  <si>
-    <t>El usuario puede visualizar y gestionar tareas en un tablero Kanban, moviéndolas entre columnas como "Por hacer", "En progreso" y "Completado"</t>
-  </si>
-  <si>
-    <t>R-11</t>
-  </si>
-  <si>
-    <t>Visualización de Gráfico de Gantt</t>
-  </si>
-  <si>
-    <t>El usuario puede ver un gráfico de Gantt que muestra el cronograma de tareas y dependencias de un proyecto</t>
-  </si>
-  <si>
-    <t>R-12</t>
-  </si>
-  <si>
-    <t>Asignación de Tareas a Colaboradores</t>
-  </si>
-  <si>
-    <t>Administrador de Proyecto</t>
-  </si>
-  <si>
-    <t>El administrador puede asignar tareas a diferentes usuarios del equipo, indicando quién es responsable de cada una</t>
-  </si>
-  <si>
-    <t>R-13</t>
-  </si>
-  <si>
-    <t>Configuración de Notificaciones</t>
-  </si>
-  <si>
-    <t>El usuario puede configurar alertas y notificaciones sobre fechas límite de las tareas, ya sea vía correo electrónico o notificaciones en la plataforma</t>
-  </si>
-  <si>
-    <t>R-14</t>
-  </si>
-  <si>
-    <t>Sincronización con Google Calendar</t>
-  </si>
-  <si>
-    <t>El usuario puede sincronizar tareas con Google Calendar, permitiendo la visualización de eventos en ambas plataformas</t>
-  </si>
-  <si>
-    <t>R-15</t>
-  </si>
-  <si>
-    <t>Asignación de Prioridades a Tareas</t>
-  </si>
-  <si>
-    <t>El usuario puede asignar una prioridad (alta, media, baja) a cada tarea para identificar su urgencia</t>
-  </si>
-  <si>
-    <t>R-16</t>
-  </si>
-  <si>
-    <t>Gestión de Permisos de Usuarios</t>
-  </si>
-  <si>
-    <t>El administrador puede asignar diferentes roles y permisos a los usuarios para gestionar el acceso a proyectos y tareas</t>
-  </si>
-  <si>
-    <t>R-18</t>
-  </si>
-  <si>
-    <t>Adjuntar Archivos a Tareas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario puede adjuntar archivos relevantes (documentos, imágenes, etc.) a una tarea para tener toda la información necesaria en un solo lugar</t>
-  </si>
-  <si>
-    <t>R-19</t>
-  </si>
-  <si>
-    <t>Creación de Etiquetas para Tareas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario puede crear y asignar etiquetas personalizadas a las tareas para organizarlas según distintos criterios (como prioridad, tema o tipo)</t>
-  </si>
-  <si>
-    <t>R-21</t>
-  </si>
-  <si>
-    <t>Rendimiento del Sistema</t>
-  </si>
-  <si>
-    <t>No funcional</t>
-  </si>
-  <si>
-    <t>El sistema debe responder a cualquier acción del usuario (crear, editar o eliminar tareas) en menos de 3 segundos</t>
-  </si>
-  <si>
-    <t>R-22</t>
+    <t>Compatibilidad con Sistemas Operativos</t>
+  </si>
+  <si>
+    <t>El videojuego debe ser compatible únicamente con sistemas Windows versiones 10 y superiores.</t>
+  </si>
+  <si>
+    <t>Tamaño del Juego</t>
+  </si>
+  <si>
+    <t>El archivo del juego no debe superar el 1 Gb para facilitar su descarga y almacenamiento.</t>
+  </si>
+  <si>
+    <t>Estilo Visual Consistente</t>
+  </si>
+  <si>
+    <t>Diseñador Gráfico</t>
+  </si>
+  <si>
+    <t>Todos los sprites deben ser coherentes en estilo y tamaño, usando exclusivamente pixel art 16x16.</t>
+  </si>
+  <si>
+    <t>Tiempo de Carga</t>
+  </si>
+  <si>
+    <t>Los tiempos de carga entre niveles no deben exceder los 10 segundos.</t>
   </si>
   <si>
     <t>Escalabilidad</t>
   </si>
   <si>
-    <t>Administrador del Sistema</t>
-  </si>
-  <si>
-    <t>La aplicación debe soportar el crecimiento en el número de usuarios y proyectos sin comprometer el rendimiento</t>
-  </si>
-  <si>
-    <t>R-23</t>
-  </si>
-  <si>
-    <t>Compatibilidad de Navegadores</t>
-  </si>
-  <si>
-    <t>La plataforma debe ser compatible con los principales navegadores web (Chrome, Firefox, Edge)</t>
-  </si>
-  <si>
-    <t>R-24</t>
-  </si>
-  <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
-    <t>El sistema debe estar disponible al menos el 99.5% del tiempo, con un máximo de 4 horas de inactividad planificada al mes</t>
-  </si>
-  <si>
-    <t>R-25</t>
-  </si>
-  <si>
-    <t>Seguridad de Datos</t>
-  </si>
-  <si>
-    <t>Los datos de usuario deben estar protegidos mediante encriptación tanto en tránsito como en reposo</t>
-  </si>
-  <si>
-    <t>R-26</t>
-  </si>
-  <si>
-    <t>Autenticación</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la autenticación mediante cuentas de usuario con contraseñas seguras y opciones de autenticación multifactor</t>
-  </si>
-  <si>
-    <t>R-27</t>
-  </si>
-  <si>
-    <t>Control de Acceso</t>
-  </si>
-  <si>
-    <t>Solo los usuarios autorizados deben poder acceder a ciertas áreas de la plataforma, como proyectos privados o áreas administrativas</t>
-  </si>
-  <si>
-    <t>R-28</t>
-  </si>
-  <si>
-    <t>Respaldo de Datos</t>
-  </si>
-  <si>
-    <t>El sistema debe realizar copias de seguridad automáticas diarias de toda la base de datos para prevenir la pérdida de información</t>
-  </si>
-  <si>
-    <t>R-29</t>
-  </si>
-  <si>
-    <t>Facilidad de Mantenimiento</t>
-  </si>
-  <si>
-    <t>Equipo de Desarrollo</t>
-  </si>
-  <si>
-    <t>El código del sistema debe estar debidamente documentado y estructurado para facilitar futuras actualizaciones o correcciones</t>
-  </si>
-  <si>
-    <t>R-30</t>
-  </si>
-  <si>
-    <t>Interfaz de Usuario Intuitiva</t>
-  </si>
-  <si>
-    <t>La plataforma debe tener una interfaz simple y fácil de usar, de modo que los usuarios puedan aprender a usarla sin necesidad de un manual extenso</t>
-  </si>
-  <si>
-    <t>R-31</t>
-  </si>
-  <si>
-    <t>Tolerancia a Fallos</t>
-  </si>
-  <si>
-    <t>El sistema debe ser capaz de continuar funcionando en caso de fallos menores, como la pérdida de conexión temporal</t>
-  </si>
-  <si>
-    <t>R-32</t>
-  </si>
-  <si>
-    <t>Tiempo de Carga de la Plataforma</t>
-  </si>
-  <si>
-    <t>La plataforma debe cargar completamente en menos de 3 segundos en conexiones estándar</t>
-  </si>
-  <si>
-    <t>R-33</t>
-  </si>
-  <si>
-    <t>Actualizaciones Automáticas</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la actualización automática de la plataforma sin necesidad de intervención manual de los usuarios</t>
-  </si>
-  <si>
-    <t>R-34</t>
-  </si>
-  <si>
-    <t>Consumo de Recursos</t>
-  </si>
-  <si>
-    <t>El sistema debe ser eficiente en cuanto a uso de CPU y memoria, de manera que no ralentice los dispositivos de los usuarios</t>
-  </si>
-  <si>
-    <t>R-35</t>
-  </si>
-  <si>
-    <t>Portabilidad</t>
-  </si>
-  <si>
-    <t>La plataforma debe poder ser desplegada en diferentes entornos, tanto en servidores locales como en la nube, sin necesidad de grandes modificaciones</t>
-  </si>
-  <si>
-    <t>R-36</t>
-  </si>
-  <si>
-    <t>Integración con APIs Externas</t>
-  </si>
-  <si>
-    <t>La plataforma debe ser capaz de integrarse con servicios externos (como Google Calendar) mediante APIs seguras y estandarizadas</t>
-  </si>
-  <si>
-    <t>R-17</t>
-  </si>
-  <si>
-    <t>Visualización del Historial de Cambios</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario puede visualizar un registro de todas las modificaciones realizadas a una tarea o proyecto, incluyendo qué usuario hizo el cambio y cuándo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>R-20</t>
-  </si>
-  <si>
-    <t>Exportación de Reportes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>Usuario</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario puede exportar reportes de progreso, listas de tareas o proyectos en formatos como PDF o Excel para su análisis o presentación</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la autenticación mediante cuentas de usuario con contraseñas seguras</t>
+    <t>Desarrolladores</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la integración de futuros niveles y contenido adicional sin modificaciones sustanciales al núcleo del juego.</t>
+  </si>
+  <si>
+    <t>Diseño Sonoro</t>
+  </si>
+  <si>
+    <t>Todos los efectos de sonido y música deben ser consistentes con la temática de fantasía medieval y el estilo visual del juego.</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>El proyecto debe incluir documentación clara y completa sobre las funciones y el código, facilitando su mantenimiento.</t>
+  </si>
+  <si>
+    <t>Tiempo de Respuesta</t>
+  </si>
+  <si>
+    <t>Las interacciones del jugador con el juego (movimiento, ataques, cambios de niveles) deben responder en menos de 100 ms.</t>
+  </si>
+  <si>
+    <t>Control de Calidad</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Antes de cada entrega, el proyecto debe pasar por pruebas exhaustivas para garantizar la estabilidad y funcionalidad.</t>
+  </si>
+  <si>
+    <t>Escalado de Resolución</t>
+  </si>
+  <si>
+    <t>El juego debe adaptarse a diferentes resoluciones de pantalla sin perder calidad visual.</t>
   </si>
 </sst>
 </file>
@@ -447,25 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -474,6 +235,16 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -492,19 +263,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF4A86E8"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A86E8"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A86E8"/>
-      </top>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF4A86E8"/>
@@ -537,6 +297,9 @@
       <left style="thin">
         <color rgb="FF4A86E8"/>
       </left>
+      <right style="thin">
+        <color rgb="FF4A86E8"/>
+      </right>
       <top style="thin">
         <color rgb="FF4A86E8"/>
       </top>
@@ -552,44 +315,44 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,613 +579,397 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="32.38"/>
     <col customWidth="1" min="3" max="3" width="27.38"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
-    <col customWidth="1" min="5" max="5" width="48.25"/>
+    <col customWidth="1" min="4" max="4" width="19.13"/>
+    <col customWidth="1" min="5" max="5" width="67.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E22" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -2383,6 +1930,8 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2398,415 +1947,213 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="23.75"/>
-    <col customWidth="1" min="3" max="3" width="22.25"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="5" width="39.38"/>
+    <col customWidth="1" min="1" max="1" width="5.38"/>
+    <col customWidth="1" min="2" max="2" width="39.25"/>
+    <col customWidth="1" min="3" max="3" width="25.75"/>
+    <col customWidth="1" min="4" max="4" width="18.75"/>
+    <col customWidth="1" min="5" max="5" width="68.88"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3801,319 +3148,307 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="2" max="2" width="23.38"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="4" max="4" width="18.75"/>
-    <col customWidth="1" min="5" max="5" width="36.63"/>
+    <col customWidth="1" min="1" max="1" width="7.13"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="22.25"/>
+    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="5" max="5" width="77.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="33.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="10"/>
-    </row>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/Fase 2/Evidencias del proyecto/Planilla de requerimientos .xlsx
+++ b/Fase 2/Evidencias del proyecto/Planilla de requerimientos .xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -51,12 +51,18 @@
     <t>El personaje principal debe moverse en ocho direcciones dentro del entorno isométrico utilizando las teclas del teclado.</t>
   </si>
   <si>
+    <t>R-2</t>
+  </si>
+  <si>
     <t>Ataques del Personaje Jugable</t>
   </si>
   <si>
     <t>El jugador debe poder realizar ataques cuerpo a cuerpo y a distancia con diferentes armas asignadas mediante botones específicos.</t>
   </si>
   <si>
+    <t>R-3</t>
+  </si>
+  <si>
     <t>Generación Procedimental de Mazmorras</t>
   </si>
   <si>
@@ -66,61 +72,88 @@
     <t>El sistema debe crear automáticamente mazmorras con salas interconectadas y enemigos en posiciones aleatorias.</t>
   </si>
   <si>
+    <t>R-4</t>
+  </si>
+  <si>
     <t>Enemigos Cuerpo a Cuerpo</t>
   </si>
   <si>
     <t>Los enemigos deben perseguir al jugador y realizar ataques cuerpo a cuerpo al entrar en un rango cercano.</t>
   </si>
   <si>
+    <t>R-5</t>
+  </si>
+  <si>
     <t>Enemigos A Distancia</t>
   </si>
   <si>
     <t>Los enemigos deben atacar al jugador desde la distancia con proyectiles, manteniéndose fuera de su alcance cuerpo a cuerpo.</t>
   </si>
   <si>
+    <t>R-6</t>
+  </si>
+  <si>
     <t>Transición entre Pisos de Mazmorra</t>
   </si>
   <si>
     <t>Al completar un piso, el jugador debe acceder al siguiente nivel mediante una salida específica.</t>
   </si>
   <si>
+    <t>R-7</t>
+  </si>
+  <si>
     <t>Sistema de Vida del Jugador</t>
   </si>
   <si>
     <t>Implementar una barra de vida que disminuya cuando el jugador reciba daño de enemigos o trampas, con la posibilidad de recuperar vida mediante pociones.</t>
   </si>
   <si>
+    <t>R-8</t>
+  </si>
+  <si>
     <t>Sistema de Inventario</t>
   </si>
   <si>
     <t>El jugador debe poder recolectar y gestionar armas durante la partida.</t>
   </si>
   <si>
+    <t>R-9</t>
+  </si>
+  <si>
     <t>Jefe Final del Nivel</t>
   </si>
   <si>
     <t>El jefe final debe contar con patrones de ataque únicos y mayor resistencia, sirviendo como desafío principal antes de terminar el nivel.</t>
   </si>
   <si>
+    <t>R-10</t>
+  </si>
+  <si>
     <t>Activación de Trampas</t>
   </si>
   <si>
     <t>Permitir trampas dentro de las mazmorras, que puedan afectar tanto a enemigos como al propio jugador.</t>
   </si>
   <si>
+    <t>R-11</t>
+  </si>
+  <si>
     <t>Efectos Visuales de Daño</t>
   </si>
   <si>
     <t>Mostrar efectos visuales como partículas cuando el jugador o los enemigos reciben daño.</t>
   </si>
   <si>
+    <t>R-12</t>
+  </si>
+  <si>
     <t>Sistema de Habilidades</t>
   </si>
   <si>
     <t>Incorporar habilidades especiales que el jugador pueda activar.</t>
   </si>
   <si>
-    <t>R-9</t>
+    <t>R-13</t>
   </si>
   <si>
     <t>Rendimiento</t>
@@ -135,7 +168,7 @@
     <t>El juego debe mantener una tasa de 60 FPS en computadoras de gama media.</t>
   </si>
   <si>
-    <t>R-10</t>
+    <t>R-14</t>
   </si>
   <si>
     <t>Compatibilidad con Sistemas Operativos</t>
@@ -144,12 +177,18 @@
     <t>El videojuego debe ser compatible únicamente con sistemas Windows versiones 10 y superiores.</t>
   </si>
   <si>
+    <t>R-15</t>
+  </si>
+  <si>
     <t>Tamaño del Juego</t>
   </si>
   <si>
     <t>El archivo del juego no debe superar el 1 Gb para facilitar su descarga y almacenamiento.</t>
   </si>
   <si>
+    <t>R-16</t>
+  </si>
+  <si>
     <t>Estilo Visual Consistente</t>
   </si>
   <si>
@@ -159,12 +198,18 @@
     <t>Todos los sprites deben ser coherentes en estilo y tamaño, usando exclusivamente pixel art 16x16.</t>
   </si>
   <si>
+    <t>R-17</t>
+  </si>
+  <si>
     <t>Tiempo de Carga</t>
   </si>
   <si>
     <t>Los tiempos de carga entre niveles no deben exceder los 10 segundos.</t>
   </si>
   <si>
+    <t>R-18</t>
+  </si>
+  <si>
     <t>Escalabilidad</t>
   </si>
   <si>
@@ -174,24 +219,36 @@
     <t>El sistema debe permitir la integración de futuros niveles y contenido adicional sin modificaciones sustanciales al núcleo del juego.</t>
   </si>
   <si>
+    <t>R-19</t>
+  </si>
+  <si>
     <t>Diseño Sonoro</t>
   </si>
   <si>
     <t>Todos los efectos de sonido y música deben ser consistentes con la temática de fantasía medieval y el estilo visual del juego.</t>
   </si>
   <si>
+    <t>R-20</t>
+  </si>
+  <si>
     <t>Documentación</t>
   </si>
   <si>
     <t>El proyecto debe incluir documentación clara y completa sobre las funciones y el código, facilitando su mantenimiento.</t>
   </si>
   <si>
+    <t>R-21</t>
+  </si>
+  <si>
     <t>Tiempo de Respuesta</t>
   </si>
   <si>
     <t>Las interacciones del jugador con el juego (movimiento, ataques, cambios de niveles) deben responder en menos de 100 ms.</t>
   </si>
   <si>
+    <t>R-22</t>
+  </si>
+  <si>
     <t>Control de Calidad</t>
   </si>
   <si>
@@ -199,6 +256,9 @@
   </si>
   <si>
     <t>Antes de cada entrega, el proyecto debe pasar por pruebas exhaustivas para garantizar la estabilidad y funcionalidad.</t>
+  </si>
+  <si>
+    <t>R-23</t>
   </si>
   <si>
     <t>Escalado de Resolución</t>
@@ -308,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -328,16 +388,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -621,9 +678,11 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -632,78 +691,88 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -712,13 +781,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -727,58 +798,66 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -787,176 +866,194 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -1955,194 +2052,212 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3156,19 +3271,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3190,9 +3305,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -3201,73 +3318,83 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -3276,13 +3403,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -3291,63 +3420,71 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -3356,97 +3493,97 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
